--- a/docs/Model Histories.xlsx
+++ b/docs/Model Histories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\Real_Estate_Analysis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4C5F51-EC3D-40A1-967D-456F2705C7F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E021000-FF99-4CAE-8D01-BB03696FFE9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20616" yWindow="2232" windowWidth="19176" windowHeight="11856" xr2:uid="{A6735569-3412-48D9-A81F-E34E4DFEE9CE}"/>
+    <workbookView xWindow="11544" yWindow="2232" windowWidth="19176" windowHeight="11856" xr2:uid="{A6735569-3412-48D9-A81F-E34E4DFEE9CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Deep Learning Model</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Sklearn</t>
-  </si>
-  <si>
-    <t>AWS Sagemaker - Raw</t>
-  </si>
-  <si>
-    <t>AWS Sagemaker - Encoded</t>
   </si>
   <si>
     <t>Best vs Worst Performance</t>
@@ -169,6 +160,12 @@
   </si>
   <si>
     <t>Reduction in training time between Bayesian Optimization and Incremental Grid Search</t>
+  </si>
+  <si>
+    <t>BO XGBOOST w/o Tags</t>
+  </si>
+  <si>
+    <t>BO XGBOOST Sold</t>
   </si>
 </sst>
 </file>
@@ -178,10 +175,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -244,15 +241,15 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,13 +259,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -279,25 +276,25 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -332,30 +329,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{199E95C3-890B-4BD6-89DF-E2E7224A9CDD}" name="Table1" displayName="Table1" ref="A9:J13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{199E95C3-890B-4BD6-89DF-E2E7224A9CDD}" name="Table1" displayName="Table1" ref="A9:J13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A9:J13" xr:uid="{B00E93C4-8508-4C88-BAE2-DE0BA5DD3185}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F0D93059-BE22-486E-B143-D32310CD21F5}" name="Method" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7483B5A0-2D20-4415-8D69-7852762BB1F5}" name="Models" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F0D93059-BE22-486E-B143-D32310CD21F5}" name="Method" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7483B5A0-2D20-4415-8D69-7852762BB1F5}" name="Models" dataDxfId="8">
       <calculatedColumnFormula>3^8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D2A2F514-96D0-48DA-B585-9712F22A0880}" name="Total Tasks" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{D2A2F514-96D0-48DA-B585-9712F22A0880}" name="Total Tasks" dataDxfId="7">
       <calculatedColumnFormula>B10*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{20D93D46-EA4C-46CD-9954-6489D16856AA}" name="Total Time (s)" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{20D93D46-EA4C-46CD-9954-6489D16856AA}" name="Total Time (s)" dataDxfId="6">
       <calculatedColumnFormula>C10*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40716B2A-D642-4BD7-AB28-612299D1634E}" name="Total Time (min)" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{40716B2A-D642-4BD7-AB28-612299D1634E}" name="Total Time (min)" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Total Time (s)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5498A1F2-53C7-4B44-9245-0B42822822E1}" name="Total Time (hours)" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{5498A1F2-53C7-4B44-9245-0B42822822E1}" name="Total Time (hours)" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Total Time (min)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0D881C58-476D-4010-A5E7-8B9017364742}" name="Total Time (days)" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{0D881C58-476D-4010-A5E7-8B9017364742}" name="Total Time (days)" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Total Time (hours)]]/24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{2CA2A291-742D-470A-9587-3BD82255574C}" name="Pros" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{C7B4DAED-86E8-45DC-916B-52EFF68BF89E}" name="Cons" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{C7B4DAED-86E8-45DC-916B-52EFF68BF89E}" name="Cons" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{3FCFBCCF-7C1E-4051-8852-0800C5C27E06}" name="Method_" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -659,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D571E-86AD-4974-B919-982C7747BBD2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,16 +695,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>709656969216</v>
+        <v>1260988713616.6899</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>44251</v>
+        <v>44262</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(MIN(A:A), A1:B7,2,FALSE)</f>
+        <f>VLOOKUP(MIN(A:A), A1:B5,2,FALSE)</f>
         <v>AWS - TFIDF</v>
       </c>
       <c r="G3" t="s">
@@ -716,79 +713,71 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>901931000878.56995</v>
+        <v>314380091392</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>44253</v>
+        <v>44255</v>
       </c>
       <c r="F4" s="4">
         <f>1-MIN(A:A)/MAX(A:A)</f>
         <v>0.83143319991760467</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1283456106496</v>
+        <v>1040071490897.22</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>44253</v>
+        <v>44261</v>
       </c>
       <c r="F5" s="4">
-        <f>1-MIN(A:A)/A6</f>
-        <v>0.5969616625481492</v>
+        <f>1-MIN(A:A)/A3</f>
+        <v>0.75068762472083161</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>780025278437.82996</v>
+        <v>1125427766274.45</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>44253</v>
+        <v>44262</v>
       </c>
       <c r="F6" s="4">
-        <f>1-A7/A6</f>
-        <v>0.5969616625481492</v>
+        <f>1-A4/A3</f>
+        <v>0.75068762472083161</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>314380091392</v>
+        <v>569715637462</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1695799635366.3501</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44256</v>
-      </c>
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,7 +790,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,13 +809,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1">
         <v>60</v>
@@ -834,12 +823,12 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(MIN(Table1[Total Time (min)]),Table1[[#All],[Total Time (min)]:[Method_]],6, FALSE)</f>
@@ -854,12 +843,12 @@
         <v>0.99937001473352638</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(MAX(Table1[Total Time (min)]),Table1[[#All],[Total Time (min)]:[Method_]],6, FALSE)</f>
@@ -874,12 +863,12 @@
         <v>0.65555555555555556</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(B6,Table1[#All],4,FALSE)</f>
@@ -888,39 +877,39 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <f>3^9</f>
@@ -947,18 +936,18 @@
         <v>68.34375</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9">
         <f>INT(B10*0.25)</f>
@@ -985,18 +974,18 @@
         <v>17.083333333333332</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9">
         <v>60</v>
@@ -1021,18 +1010,18 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9">
         <v>36</v>
@@ -1058,13 +1047,13 @@
         <v>0.125</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">

--- a/docs/Model Histories.xlsx
+++ b/docs/Model Histories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\Real_Estate_Analysis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E021000-FF99-4CAE-8D01-BB03696FFE9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F0160-5EB1-454A-8BF8-35710575D2AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11544" yWindow="2232" windowWidth="19176" windowHeight="11856" xr2:uid="{A6735569-3412-48D9-A81F-E34E4DFEE9CE}"/>
+    <workbookView xWindow="26364" yWindow="5148" windowWidth="19176" windowHeight="11856" xr2:uid="{A6735569-3412-48D9-A81F-E34E4DFEE9CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,14 +767,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>569715637462</v>
+        <v>316701856734</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1">
-        <v>44264</v>
-      </c>
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
